--- a/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/vanessa_hernandez_gifseguridad_com_mx/Documents/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC943F07-77B2-4D2E-8D2C-3AC29A332EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFDE669-7FF4-4E87-9222-F015472CB66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,12 +119,6 @@
     <t>NIETO ALVAREZ ANGELICA</t>
   </si>
   <si>
-    <t>09-0374-03</t>
-  </si>
-  <si>
-    <t>VEGA CORTEZ ABIGAIL</t>
-  </si>
-  <si>
     <t>09-0380-03</t>
   </si>
   <si>
@@ -167,18 +161,24 @@
     <t>ENRIQUEZ GONZALEZ JOSE ALBERTO</t>
   </si>
   <si>
+    <t>09-0396-03</t>
+  </si>
+  <si>
+    <t>PEREZ ARZATE CLAUDIA</t>
+  </si>
+  <si>
+    <t>09-0397-03</t>
+  </si>
+  <si>
+    <t>VALLADARES PEREZ ALICIA</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
     <t>OSORIO MIRANDA REYNA</t>
   </si>
   <si>
-    <t>15-0020-03</t>
-  </si>
-  <si>
-    <t>AZOTEA EVARISTO JESUS IVAN</t>
-  </si>
-  <si>
     <t>09-0004-02</t>
   </si>
   <si>
@@ -197,16 +197,16 @@
     <t>RODRIGUEZ HERNANDEZ DIONICIO</t>
   </si>
   <si>
-    <t>09-0197-03</t>
-  </si>
-  <si>
-    <t>JUAREZ GOMEZ ELVIRA</t>
-  </si>
-  <si>
     <t>09-0243-03</t>
   </si>
   <si>
     <t>DIAZ VAZQUEZ SONIA</t>
+  </si>
+  <si>
+    <t>09-0265-03</t>
+  </si>
+  <si>
+    <t>MEMBRILA MOLINA MARIA DE JESUS ALTAGRACIA</t>
   </si>
   <si>
     <t>09-0325-03</t>
@@ -586,12 +586,12 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>977</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">

--- a/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/vanessa_hernandez_gifseguridad_com_mx/Documents/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFDE669-7FF4-4E87-9222-F015472CB66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E770C42-10FB-4973-9706-E8EB9F03B9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,12 +89,6 @@
     <t>PRADO GARCIA DARIO</t>
   </si>
   <si>
-    <t>09-0338-03</t>
-  </si>
-  <si>
-    <t>SANTAMARIA BAUTISTA LEONEL FABIAN</t>
-  </si>
-  <si>
     <t>09-0357-03</t>
   </si>
   <si>
@@ -155,30 +149,42 @@
     <t>SANTOS ARIAS ANTONIO</t>
   </si>
   <si>
-    <t>09-0395-03</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ GONZALEZ JOSE ALBERTO</t>
-  </si>
-  <si>
-    <t>09-0396-03</t>
-  </si>
-  <si>
-    <t>PEREZ ARZATE CLAUDIA</t>
-  </si>
-  <si>
     <t>09-0397-03</t>
   </si>
   <si>
     <t>VALLADARES PEREZ ALICIA</t>
   </si>
   <si>
+    <t>09-0398-03</t>
+  </si>
+  <si>
+    <t>ZUÑIGA VICTORIA FABIOLA</t>
+  </si>
+  <si>
+    <t>09-0399-03</t>
+  </si>
+  <si>
+    <t>CUELLAR  TORRES  CARLOS EFREN</t>
+  </si>
+  <si>
+    <t>09-0400-03</t>
+  </si>
+  <si>
+    <t>CAMPOS ACOSTA VICENTE ROBERTO</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
     <t>OSORIO MIRANDA REYNA</t>
   </si>
   <si>
+    <t>15-0021-03</t>
+  </si>
+  <si>
+    <t>CONTRERAS GARCIA CONSTANTINO</t>
+  </si>
+  <si>
     <t>09-0004-02</t>
   </si>
   <si>
@@ -201,12 +207,6 @@
   </si>
   <si>
     <t>DIAZ VAZQUEZ SONIA</t>
-  </si>
-  <si>
-    <t>09-0265-03</t>
-  </si>
-  <si>
-    <t>MEMBRILA MOLINA MARIA DE JESUS ALTAGRACIA</t>
   </si>
   <si>
     <t>09-0325-03</t>
@@ -586,12 +586,12 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>1068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">

--- a/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/vanessa_hernandez_gifseguridad_com_mx/Documents/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E770C42-10FB-4973-9706-E8EB9F03B9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD1D9B5-8675-482F-94F7-A1F999221871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>09-0001-02</t>
   </si>
@@ -71,12 +71,6 @@
     <t>ROSAS ROSAS LUIS ENRIQUE</t>
   </si>
   <si>
-    <t>09-0028-03</t>
-  </si>
-  <si>
-    <t>SANTANA ARAUZ JOSE</t>
-  </si>
-  <si>
     <t>09-0244-03</t>
   </si>
   <si>
@@ -155,22 +149,22 @@
     <t>VALLADARES PEREZ ALICIA</t>
   </si>
   <si>
-    <t>09-0398-03</t>
-  </si>
-  <si>
-    <t>ZUÑIGA VICTORIA FABIOLA</t>
-  </si>
-  <si>
     <t>09-0399-03</t>
   </si>
   <si>
     <t>CUELLAR  TORRES  CARLOS EFREN</t>
   </si>
   <si>
-    <t>09-0400-03</t>
-  </si>
-  <si>
-    <t>CAMPOS ACOSTA VICENTE ROBERTO</t>
+    <t>09-0401-03</t>
+  </si>
+  <si>
+    <t>TOLEDO DE LOS SANTOS CRISTHIAN</t>
+  </si>
+  <si>
+    <t>09-0403-03</t>
+  </si>
+  <si>
+    <t>GUTIERREZ PERALTA ESTEBAN LEONEL</t>
   </si>
   <si>
     <t>15-0016-03</t>
@@ -179,10 +173,10 @@
     <t>OSORIO MIRANDA REYNA</t>
   </si>
   <si>
-    <t>15-0021-03</t>
-  </si>
-  <si>
-    <t>CONTRERAS GARCIA CONSTANTINO</t>
+    <t>15-0023-03</t>
+  </si>
+  <si>
+    <t>ALAMILLO CHAVEZ RAYMUNDO</t>
   </si>
   <si>
     <t>09-0004-02</t>
@@ -583,15 +577,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -668,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>1426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -723,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -734,7 +728,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>1068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -910,17 +904,6 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30">
         <v>0</v>
       </c>
     </row>

--- a/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/vanessa_hernandez_gifseguridad_com_mx/Documents/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD1D9B5-8675-482F-94F7-A1F999221871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C4CFB8-9D02-4CF5-8F21-58E026437E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>09-0001-02</t>
   </si>
@@ -119,24 +119,12 @@
     <t>BUSTAMANTE ARAGON OSCAR</t>
   </si>
   <si>
-    <t>09-0390-03</t>
-  </si>
-  <si>
-    <t>VILLAGRAN VILLA GABRIEL</t>
-  </si>
-  <si>
     <t>09-0391-03</t>
   </si>
   <si>
     <t>ITURBIDE JIMENEZ JUAN JESUS</t>
   </si>
   <si>
-    <t>09-0392-03</t>
-  </si>
-  <si>
-    <t>HERRERA MARTINEZ JUAN</t>
-  </si>
-  <si>
     <t>09-0394-03</t>
   </si>
   <si>
@@ -155,18 +143,18 @@
     <t>CUELLAR  TORRES  CARLOS EFREN</t>
   </si>
   <si>
-    <t>09-0401-03</t>
-  </si>
-  <si>
-    <t>TOLEDO DE LOS SANTOS CRISTHIAN</t>
-  </si>
-  <si>
     <t>09-0403-03</t>
   </si>
   <si>
     <t>GUTIERREZ PERALTA ESTEBAN LEONEL</t>
   </si>
   <si>
+    <t>09-0404-03</t>
+  </si>
+  <si>
+    <t>MONTIEL BARRAGAN EDGAR YAIR</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
@@ -207,6 +195,12 @@
   </si>
   <si>
     <t>SEVILLA MENDEZ JULIO CESAR</t>
+  </si>
+  <si>
+    <t>09-0347-03</t>
+  </si>
+  <si>
+    <t>RUIZ FUENTES DULCE GEOVANNY</t>
   </si>
 </sst>
 </file>
@@ -577,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -896,17 +890,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/infonavitNQUINCENAL .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/vanessa_hernandez_gifseguridad_com_mx/Documents/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C4CFB8-9D02-4CF5-8F21-58E026437E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{475B19B9-2B22-4035-B9AD-111D0E36E1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>09-0001-02</t>
   </si>
@@ -53,12 +53,6 @@
     <t>CRUZ RIVERA MONICA LIZETE</t>
   </si>
   <si>
-    <t>09-0021-02</t>
-  </si>
-  <si>
-    <t>SOTO GUZMAN SARAHY SUZUKY</t>
-  </si>
-  <si>
     <t>09-0022-02</t>
   </si>
   <si>
@@ -137,12 +131,6 @@
     <t>VALLADARES PEREZ ALICIA</t>
   </si>
   <si>
-    <t>09-0399-03</t>
-  </si>
-  <si>
-    <t>CUELLAR  TORRES  CARLOS EFREN</t>
-  </si>
-  <si>
     <t>09-0403-03</t>
   </si>
   <si>
@@ -155,6 +143,24 @@
     <t>MONTIEL BARRAGAN EDGAR YAIR</t>
   </si>
   <si>
+    <t>09-0406-03</t>
+  </si>
+  <si>
+    <t>RIVERA  FUENTES  EVELYN JAZMIN</t>
+  </si>
+  <si>
+    <t>09-0407-03</t>
+  </si>
+  <si>
+    <t>SILVA ROMERO JACQUELINE</t>
+  </si>
+  <si>
+    <t>09-0408-03</t>
+  </si>
+  <si>
+    <t>MEDINA ALVAREZ KARLA ITZEL</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
@@ -165,6 +171,12 @@
   </si>
   <si>
     <t>ALAMILLO CHAVEZ RAYMUNDO</t>
+  </si>
+  <si>
+    <t>15-0024-03</t>
+  </si>
+  <si>
+    <t>SANCHEZ VARGAS ISAIAS</t>
   </si>
   <si>
     <t>09-0004-02</t>
@@ -571,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -645,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -700,7 +712,7 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -711,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>1068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -887,6 +899,28 @@
         <v>55</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
     </row>
